--- a/Collections/Germany/#Germany#GDR#Regular#[1950-1990]#circulation_quality.xlsx
+++ b/Collections/Germany/#Germany#GDR#Regular#[1950-1990]#circulation_quality.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\Германия\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB98417C-C05B-4F70-BE32-FBB45522C426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1₰" sheetId="12" r:id="rId1"/>
@@ -22,11 +23,15 @@
     <sheet name="5ℳ" sheetId="25" r:id="rId8"/>
     <sheet name="Links" sheetId="21" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,13 +39,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
     <author>Илюшин Алексей</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -55,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -71,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -86,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="1" shapeId="0">
+    <comment ref="H2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -107,13 +112,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
     <author>Илюшин Алексей</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -128,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -144,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -159,7 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="1" shapeId="0">
+    <comment ref="H2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -180,13 +185,13 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
     <author>Илюшин Алексей</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -201,7 +206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -217,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -232,7 +237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="1" shapeId="0">
+    <comment ref="H2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -253,12 +258,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -273,7 +278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -293,12 +298,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -313,7 +318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -333,12 +338,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -353,7 +358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -373,12 +378,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -393,7 +398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -413,12 +418,12 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -433,7 +438,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1007,9 +1012,6 @@
     <t>5₰</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -1056,12 +1058,15 @@
   </si>
   <si>
     <t>Middle convenience set of tables all coins with mintages</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1337,37 +1342,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1392,6 +1366,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2141,16 +2146,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица43" displayName="Таблица43" ref="A1:C3" totalsRowShown="0">
-  <autoFilter ref="A1:C3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица43" displayName="Таблица43" ref="A1:C3" totalsRowShown="0">
+  <autoFilter ref="A1:C3" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2452,54 +2457,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="31" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="20" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="32"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="30"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="24"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29" t="s">
+      <c r="D2" s="18" t="s">
         <v>186</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>187</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>1</v>
@@ -2514,16 +2519,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>1948</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="14" t="s">
@@ -2540,16 +2545,16 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>1949</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="19"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="7" t="s">
         <v>13</v>
       </c>
@@ -2564,11 +2569,11 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>1950</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="6"/>
@@ -2590,7 +2595,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>1951</v>
       </c>
@@ -2620,11 +2625,11 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>1952</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="6"/>
@@ -2646,11 +2651,11 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>1953</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="6"/>
@@ -2672,11 +2677,11 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>1954</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="6"/>
@@ -2698,11 +2703,11 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>1955</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="6"/>
@@ -2724,11 +2729,11 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>1956</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="6"/>
@@ -2750,11 +2755,11 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>1957</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="6"/>
@@ -2776,11 +2781,11 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>1958</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="6"/>
@@ -2802,11 +2807,11 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>1959</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="6"/>
@@ -2828,7 +2833,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>1960</v>
       </c>
@@ -2858,7 +2863,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>1961</v>
       </c>
@@ -2888,7 +2893,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>1962</v>
       </c>
@@ -2918,7 +2923,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>1963</v>
       </c>
@@ -2948,7 +2953,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>1964</v>
       </c>
@@ -2978,7 +2983,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>1965</v>
       </c>
@@ -3008,7 +3013,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>1966</v>
       </c>
@@ -3038,7 +3043,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>1967</v>
       </c>
@@ -3068,11 +3073,11 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>1968</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="6"/>
@@ -3094,7 +3099,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>1969</v>
       </c>
@@ -3124,7 +3129,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>1970</v>
       </c>
@@ -3154,7 +3159,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>1971</v>
       </c>
@@ -3184,11 +3189,11 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>1972</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="6"/>
@@ -3210,11 +3215,11 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>1973</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="6"/>
@@ -3236,7 +3241,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>1974</v>
       </c>
@@ -3266,11 +3271,11 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>1975</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C30" s="6"/>
@@ -3292,7 +3297,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>1976</v>
       </c>
@@ -3322,15 +3327,15 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>1977</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="8" t="s">
@@ -3350,15 +3355,15 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>1978</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="8" t="s">
@@ -3378,15 +3383,15 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>1979</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="8" t="s">
@@ -3406,15 +3411,15 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>1980</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="7" t="s">
@@ -3434,15 +3439,15 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>1981</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="8" t="s">
@@ -3462,15 +3467,15 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>1982</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="8" t="s">
@@ -3490,15 +3495,15 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>1983</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="8" t="s">
@@ -3518,15 +3523,15 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>1984</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="8" t="s">
@@ -3546,15 +3551,15 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>1985</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="8" t="s">
@@ -3574,15 +3579,15 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>1986</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="8" t="s">
@@ -3602,15 +3607,15 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>1987</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="8" t="s">
@@ -3630,15 +3635,15 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>1988</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="8" t="s">
@@ -3658,15 +3663,15 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>1989</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="8" t="s">
@@ -3686,15 +3691,15 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>1990</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="8" t="s">
@@ -4002,54 +4007,54 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="31" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="20" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="H1" s="32"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="30"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="H1" s="24"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29" t="s">
+      <c r="D2" s="18" t="s">
         <v>186</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>187</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>1</v>
@@ -4064,16 +4069,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1948</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="21" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="14" t="s">
@@ -4090,16 +4095,16 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1949</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="33"/>
+      <c r="E4" s="22"/>
       <c r="F4" s="14" t="s">
         <v>0</v>
       </c>
@@ -4114,11 +4119,11 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1950</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="6"/>
@@ -4140,7 +4145,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1951</v>
       </c>
@@ -4170,11 +4175,11 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1952</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="6"/>
@@ -4196,11 +4201,11 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1953</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="6"/>
@@ -4222,7 +4227,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1954</v>
       </c>
@@ -4252,7 +4257,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1955</v>
       </c>
@@ -4282,7 +4287,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1956</v>
       </c>
@@ -4312,7 +4317,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1957</v>
       </c>
@@ -4342,7 +4347,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1958</v>
       </c>
@@ -4372,7 +4377,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1959</v>
       </c>
@@ -4402,7 +4407,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1960</v>
       </c>
@@ -4432,7 +4437,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1961</v>
       </c>
@@ -4462,7 +4467,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1962</v>
       </c>
@@ -4492,7 +4497,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1963</v>
       </c>
@@ -4522,7 +4527,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1964</v>
       </c>
@@ -4552,7 +4557,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1965</v>
       </c>
@@ -4582,7 +4587,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1966</v>
       </c>
@@ -4612,7 +4617,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>1967</v>
       </c>
@@ -4642,11 +4647,11 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1968</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="6"/>
@@ -4668,7 +4673,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>1969</v>
       </c>
@@ -4698,7 +4703,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>1970</v>
       </c>
@@ -4728,7 +4733,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>1971</v>
       </c>
@@ -4758,11 +4763,11 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>1972</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="6"/>
@@ -4784,7 +4789,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>1973</v>
       </c>
@@ -4814,7 +4819,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>1974</v>
       </c>
@@ -4844,11 +4849,11 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>1975</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C30" s="6"/>
@@ -4870,7 +4875,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>1976</v>
       </c>
@@ -4900,7 +4905,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>1977</v>
       </c>
@@ -4930,15 +4935,15 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>1978</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="8" t="s">
@@ -4958,15 +4963,15 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>1979</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="8" t="s">
@@ -4986,15 +4991,15 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>1980</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="7" t="s">
@@ -5014,15 +5019,15 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>1981</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="8" t="s">
@@ -5042,15 +5047,15 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>1982</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="8" t="s">
@@ -5070,15 +5075,15 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>1983</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="8" t="s">
@@ -5098,15 +5103,15 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>1984</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="8" t="s">
@@ -5126,15 +5131,15 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>1985</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="8" t="s">
@@ -5154,15 +5159,15 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>1986</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="8" t="s">
@@ -5182,15 +5187,15 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>1987</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="8" t="s">
@@ -5210,15 +5215,15 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>1988</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="8" t="s">
@@ -5238,15 +5243,15 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>1989</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="8" t="s">
@@ -5266,15 +5271,15 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>1990</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="8" t="s">
@@ -5511,54 +5516,54 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="31" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="20" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="H1" s="32"/>
+    </row>
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="30"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="H1" s="24"/>
-    </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29" t="s">
+      <c r="D2" s="18" t="s">
         <v>186</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>187</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>1</v>
@@ -5573,16 +5578,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1948</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="27" t="s">
         <v>65</v>
       </c>
       <c r="F3" s="14" t="s">
@@ -5599,16 +5604,16 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1949</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="19"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="14" t="s">
         <v>0</v>
       </c>
@@ -5623,16 +5628,16 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1950</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="19"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="7" t="s">
         <v>66</v>
       </c>
@@ -5647,7 +5652,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1951</v>
       </c>
@@ -5677,11 +5682,11 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1952</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="6"/>
@@ -5703,11 +5708,11 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1953</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="6"/>
@@ -5732,7 +5737,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1954</v>
       </c>
@@ -5762,7 +5767,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1955</v>
       </c>
@@ -5792,7 +5797,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1956</v>
       </c>
@@ -5823,7 +5828,7 @@
       </c>
       <c r="O11" s="13"/>
     </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1957</v>
       </c>
@@ -5853,7 +5858,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1958</v>
       </c>
@@ -5883,7 +5888,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1959</v>
       </c>
@@ -5913,7 +5918,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1960</v>
       </c>
@@ -5943,7 +5948,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1961</v>
       </c>
@@ -5973,7 +5978,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1962</v>
       </c>
@@ -6003,11 +6008,11 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1963</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="6"/>
@@ -6029,7 +6034,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1964</v>
       </c>
@@ -6059,11 +6064,11 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1965</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C20" s="6"/>
@@ -6085,7 +6090,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1966</v>
       </c>
@@ -6115,11 +6120,11 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>1967</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="6"/>
@@ -6141,11 +6146,11 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1968</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="6"/>
@@ -6167,7 +6172,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>1969</v>
       </c>
@@ -6197,11 +6202,11 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>1970</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C25" s="6"/>
@@ -6223,11 +6228,11 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>1971</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="6"/>
@@ -6249,11 +6254,11 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>1972</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="6"/>
@@ -6275,11 +6280,11 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>1973</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="6"/>
@@ -6301,7 +6306,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>1974</v>
       </c>
@@ -6331,7 +6336,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>1975</v>
       </c>
@@ -6361,7 +6366,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>1976</v>
       </c>
@@ -6391,7 +6396,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>1977</v>
       </c>
@@ -6421,11 +6426,11 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>1978</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="6"/>
@@ -6447,11 +6452,11 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>1979</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C34" s="6"/>
@@ -6473,11 +6478,11 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>1980</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C35" s="6"/>
@@ -6499,11 +6504,11 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>1981</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C36" s="6"/>
@@ -6525,11 +6530,11 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>1982</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C37" s="6"/>
@@ -6551,11 +6556,11 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>1983</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C38" s="6"/>
@@ -6577,11 +6582,11 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>1984</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C39" s="6"/>
@@ -6603,11 +6608,11 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>1985</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C40" s="6"/>
@@ -6629,11 +6634,11 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>1986</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C41" s="6"/>
@@ -6655,11 +6660,11 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>1987</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C42" s="6"/>
@@ -6681,11 +6686,11 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>1988</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C43" s="6"/>
@@ -6707,11 +6712,11 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>1989</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C44" s="6"/>
@@ -6733,11 +6738,11 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>1990</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C45" s="6"/>
@@ -7047,52 +7052,52 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E1:F2"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="31" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="20" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="16" t="s">
         <v>188</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="16" t="s">
-        <v>189</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29" t="s">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="30"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>186</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>187</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>1</v>
@@ -7101,7 +7106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17">
         <v>1948</v>
       </c>
@@ -7125,7 +7130,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="17">
         <v>1949</v>
       </c>
@@ -7149,7 +7154,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17">
         <v>1950</v>
       </c>
@@ -7173,7 +7178,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="17">
         <v>1951</v>
       </c>
@@ -7197,7 +7202,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17">
         <v>1952</v>
       </c>
@@ -7221,7 +7226,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="17">
         <v>1953</v>
       </c>
@@ -7245,7 +7250,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17">
         <v>1954</v>
       </c>
@@ -7269,7 +7274,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="17">
         <v>1955</v>
       </c>
@@ -7293,7 +7298,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="17">
         <v>1956</v>
       </c>
@@ -7317,7 +7322,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1957</v>
       </c>
@@ -7341,7 +7346,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1958</v>
       </c>
@@ -7365,7 +7370,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1959</v>
       </c>
@@ -7389,7 +7394,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1960</v>
       </c>
@@ -7413,7 +7418,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1961</v>
       </c>
@@ -7437,7 +7442,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1962</v>
       </c>
@@ -7461,7 +7466,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1963</v>
       </c>
@@ -7485,7 +7490,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1964</v>
       </c>
@@ -7509,7 +7514,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1965</v>
       </c>
@@ -7533,7 +7538,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1966</v>
       </c>
@@ -7557,7 +7562,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>1967</v>
       </c>
@@ -7581,7 +7586,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1968</v>
       </c>
@@ -7605,11 +7610,11 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>1969</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="6"/>
@@ -7625,7 +7630,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>1970</v>
       </c>
@@ -7649,11 +7654,11 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>1971</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="6"/>
@@ -7669,11 +7674,11 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>1972</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="6"/>
@@ -7689,11 +7694,11 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>1973</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="6"/>
@@ -7709,11 +7714,11 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>1974</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="6"/>
@@ -7729,7 +7734,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>1975</v>
       </c>
@@ -7753,7 +7758,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>1976</v>
       </c>
@@ -7777,7 +7782,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>1977</v>
       </c>
@@ -7801,7 +7806,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>1978</v>
       </c>
@@ -7825,11 +7830,11 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>1979</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C34" s="6"/>
@@ -7845,11 +7850,11 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>1980</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C35" s="6"/>
@@ -7865,11 +7870,11 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>1981</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C36" s="6"/>
@@ -7885,11 +7890,11 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>1982</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C37" s="6"/>
@@ -7905,11 +7910,11 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>1983</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C38" s="6"/>
@@ -7925,11 +7930,11 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>1984</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C39" s="6"/>
@@ -7945,11 +7950,11 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>1985</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C40" s="6"/>
@@ -7965,11 +7970,11 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>1986</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C41" s="6"/>
@@ -7985,11 +7990,11 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>1987</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C42" s="6"/>
@@ -8005,11 +8010,11 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>1988</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C43" s="6"/>
@@ -8025,11 +8030,11 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>1989</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C44" s="6"/>
@@ -8045,11 +8050,11 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>1990</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C45" s="6"/>
@@ -8214,52 +8219,52 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="31" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="20" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="16" t="s">
         <v>188</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="16" t="s">
-        <v>189</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29" t="s">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="30"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>186</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>187</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>1</v>
@@ -8268,7 +8273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17">
         <v>1948</v>
       </c>
@@ -8292,11 +8297,11 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="17">
         <v>1949</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="19" t="s">
         <v>104</v>
       </c>
       <c r="C4" s="6"/>
@@ -8312,11 +8317,11 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17">
         <v>1950</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="19" t="s">
         <v>104</v>
       </c>
       <c r="C5" s="6"/>
@@ -8332,7 +8337,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="17">
         <v>1951</v>
       </c>
@@ -8356,7 +8361,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17">
         <v>1952</v>
       </c>
@@ -8380,7 +8385,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="17">
         <v>1953</v>
       </c>
@@ -8404,7 +8409,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17">
         <v>1954</v>
       </c>
@@ -8428,7 +8433,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="17">
         <v>1955</v>
       </c>
@@ -8452,7 +8457,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1956</v>
       </c>
@@ -8476,7 +8481,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1957</v>
       </c>
@@ -8500,15 +8505,15 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1958</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="7" t="s">
@@ -8522,7 +8527,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1959</v>
       </c>
@@ -8546,7 +8551,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1960</v>
       </c>
@@ -8570,7 +8575,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1961</v>
       </c>
@@ -8594,7 +8599,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1962</v>
       </c>
@@ -8618,7 +8623,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1963</v>
       </c>
@@ -8642,7 +8647,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1964</v>
       </c>
@@ -8666,7 +8671,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1965</v>
       </c>
@@ -8690,7 +8695,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1966</v>
       </c>
@@ -8714,7 +8719,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>1967</v>
       </c>
@@ -8738,15 +8743,15 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1968</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="8" t="s">
@@ -8760,7 +8765,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>1969</v>
       </c>
@@ -8784,7 +8789,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>1970</v>
       </c>
@@ -8808,15 +8813,15 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>1971</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="7" t="s">
@@ -8830,15 +8835,15 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>1972</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="7" t="s">
@@ -8852,15 +8857,15 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>1973</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="7" t="s">
@@ -8874,7 +8879,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>1974</v>
       </c>
@@ -8898,7 +8903,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>1975</v>
       </c>
@@ -8922,7 +8927,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>1976</v>
       </c>
@@ -8946,7 +8951,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>1977</v>
       </c>
@@ -8970,7 +8975,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>1978</v>
       </c>
@@ -8994,15 +8999,15 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>1979</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="8" t="s">
@@ -9016,15 +9021,15 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>1980</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="7" t="s">
@@ -9038,15 +9043,15 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>1981</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="8" t="s">
@@ -9060,15 +9065,15 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>1982</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="8" t="s">
@@ -9082,15 +9087,15 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>1983</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="8" t="s">
@@ -9104,15 +9109,15 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>1984</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="8" t="s">
@@ -9126,15 +9131,15 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>1985</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="8" t="s">
@@ -9148,15 +9153,15 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>1986</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="8" t="s">
@@ -9170,15 +9175,15 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>1987</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="14" t="s">
@@ -9192,15 +9197,15 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>1988</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="14" t="s">
@@ -9214,15 +9219,15 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>1989</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="8" t="s">
@@ -9236,15 +9241,15 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>1990</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="14" t="s">
@@ -9276,7 +9281,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13 F23 F26:F28 F44 F34:F41">
+  <conditionalFormatting sqref="F23 F13 F26:F28 F44 F34:F41">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9475,52 +9480,52 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1:F2"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="31" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="20" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="16" t="s">
         <v>188</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="16" t="s">
-        <v>189</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29" t="s">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="30"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>186</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>187</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>1</v>
@@ -9529,7 +9534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>1948</v>
       </c>
@@ -9553,7 +9558,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>1949</v>
       </c>
@@ -9577,7 +9582,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>1950</v>
       </c>
@@ -9601,7 +9606,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>1951</v>
       </c>
@@ -9625,7 +9630,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>1952</v>
       </c>
@@ -9649,7 +9654,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>1953</v>
       </c>
@@ -9673,7 +9678,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>1954</v>
       </c>
@@ -9697,7 +9702,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>1955</v>
       </c>
@@ -9721,15 +9726,15 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>1956</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="7" t="s">
@@ -9743,7 +9748,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>1957</v>
       </c>
@@ -9767,7 +9772,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>1958</v>
       </c>
@@ -9791,7 +9796,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>1959</v>
       </c>
@@ -9815,7 +9820,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>1960</v>
       </c>
@@ -9839,7 +9844,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>1961</v>
       </c>
@@ -9863,15 +9868,15 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>1962</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="7" t="s">
@@ -9885,15 +9890,15 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>1963</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="7" t="s">
@@ -9907,7 +9912,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>1964</v>
       </c>
@@ -9931,7 +9936,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>1965</v>
       </c>
@@ -9955,7 +9960,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>1966</v>
       </c>
@@ -9979,7 +9984,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>1967</v>
       </c>
@@ -10003,7 +10008,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>1968</v>
       </c>
@@ -10027,7 +10032,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>1969</v>
       </c>
@@ -10051,7 +10056,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>1970</v>
       </c>
@@ -10075,7 +10080,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>1971</v>
       </c>
@@ -10099,15 +10104,15 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>1972</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="7" t="s">
@@ -10121,15 +10126,15 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>1973</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="7" t="s">
@@ -10143,7 +10148,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>1974</v>
       </c>
@@ -10167,15 +10172,15 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>1975</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="7" t="s">
@@ -10189,7 +10194,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>1976</v>
       </c>
@@ -10213,15 +10218,15 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>1977</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="8" t="s">
@@ -10235,15 +10240,15 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>1978</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="8" t="s">
@@ -10257,15 +10262,15 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>1979</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="8" t="s">
@@ -10279,15 +10284,15 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>1980</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="7" t="s">
@@ -10301,15 +10306,15 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>1981</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="8" t="s">
@@ -10323,15 +10328,15 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>1982</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="8" t="s">
@@ -10345,15 +10350,15 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>1983</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="8" t="s">
@@ -10367,15 +10372,15 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>1984</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="8" t="s">
@@ -10389,15 +10394,15 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>1985</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="8" t="s">
@@ -10411,15 +10416,15 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>1986</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="8" t="s">
@@ -10433,15 +10438,15 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>1987</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="14" t="s">
@@ -10455,15 +10460,15 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>1988</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="14" t="s">
@@ -10477,15 +10482,15 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>1989</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="14" t="s">
@@ -10499,15 +10504,15 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>1990</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="14" t="s">
@@ -10687,52 +10692,52 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1:F2"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="31" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="20" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="16" t="s">
         <v>188</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="16" t="s">
-        <v>189</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29" t="s">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="30"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>186</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>187</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>1</v>
@@ -10741,7 +10746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17">
         <v>1948</v>
       </c>
@@ -10765,7 +10770,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="17">
         <v>1949</v>
       </c>
@@ -10789,7 +10794,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17">
         <v>1950</v>
       </c>
@@ -10813,7 +10818,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="17">
         <v>1951</v>
       </c>
@@ -10837,7 +10842,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17">
         <v>1952</v>
       </c>
@@ -10861,7 +10866,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1953</v>
       </c>
@@ -10885,7 +10890,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1954</v>
       </c>
@@ -10909,7 +10914,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1955</v>
       </c>
@@ -10933,7 +10938,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1956</v>
       </c>
@@ -10957,15 +10962,15 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1957</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="7" t="s">
@@ -10979,7 +10984,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1958</v>
       </c>
@@ -11003,7 +11008,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1959</v>
       </c>
@@ -11027,7 +11032,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1960</v>
       </c>
@@ -11051,7 +11056,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1961</v>
       </c>
@@ -11075,7 +11080,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1962</v>
       </c>
@@ -11099,7 +11104,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1963</v>
       </c>
@@ -11123,7 +11128,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1964</v>
       </c>
@@ -11147,7 +11152,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1965</v>
       </c>
@@ -11171,7 +11176,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1966</v>
       </c>
@@ -11195,7 +11200,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>1967</v>
       </c>
@@ -11219,7 +11224,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1968</v>
       </c>
@@ -11243,7 +11248,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>1969</v>
       </c>
@@ -11267,7 +11272,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>1970</v>
       </c>
@@ -11291,7 +11296,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>1971</v>
       </c>
@@ -11315,7 +11320,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>1972</v>
       </c>
@@ -11339,7 +11344,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>1973</v>
       </c>
@@ -11363,15 +11368,15 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>1974</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="7" t="s">
@@ -11385,15 +11390,15 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>1975</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="7" t="s">
@@ -11407,7 +11412,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>1976</v>
       </c>
@@ -11431,15 +11436,15 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>1977</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="8" t="s">
@@ -11453,15 +11458,15 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>1978</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="8" t="s">
@@ -11475,15 +11480,15 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>1979</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="8" t="s">
@@ -11497,15 +11502,15 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>1980</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="7" t="s">
@@ -11519,15 +11524,15 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>1981</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="8" t="s">
@@ -11541,15 +11546,15 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>1982</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="8" t="s">
@@ -11563,15 +11568,15 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>1983</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="8" t="s">
@@ -11585,15 +11590,15 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>1984</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="8" t="s">
@@ -11607,15 +11612,15 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>1985</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="8" t="s">
@@ -11629,15 +11634,15 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>1986</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="8" t="s">
@@ -11651,15 +11656,15 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>1987</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="8" t="s">
@@ -11673,15 +11678,15 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>1988</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="8" t="s">
@@ -11695,15 +11700,15 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>1989</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="8" t="s">
@@ -11717,15 +11722,15 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>1990</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="14" t="s">
@@ -11939,52 +11944,52 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D40" sqref="D40"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="31" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="20" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="16" t="s">
         <v>188</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="16" t="s">
-        <v>189</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29" t="s">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="30"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>186</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>187</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>1</v>
@@ -11993,7 +11998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17">
         <v>1948</v>
       </c>
@@ -12017,7 +12022,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="17">
         <v>1949</v>
       </c>
@@ -12041,7 +12046,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17">
         <v>1950</v>
       </c>
@@ -12065,7 +12070,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1951</v>
       </c>
@@ -12089,7 +12094,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1952</v>
       </c>
@@ -12113,7 +12118,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1953</v>
       </c>
@@ -12137,7 +12142,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1954</v>
       </c>
@@ -12161,7 +12166,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1955</v>
       </c>
@@ -12185,7 +12190,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1956</v>
       </c>
@@ -12209,7 +12214,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1957</v>
       </c>
@@ -12233,7 +12238,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1958</v>
       </c>
@@ -12257,7 +12262,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1959</v>
       </c>
@@ -12284,7 +12289,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1960</v>
       </c>
@@ -12311,7 +12316,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1961</v>
       </c>
@@ -12338,7 +12343,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1962</v>
       </c>
@@ -12365,7 +12370,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1963</v>
       </c>
@@ -12392,7 +12397,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1964</v>
       </c>
@@ -12419,7 +12424,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1965</v>
       </c>
@@ -12446,7 +12451,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1966</v>
       </c>
@@ -12473,7 +12478,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>1967</v>
       </c>
@@ -12500,7 +12505,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1968</v>
       </c>
@@ -12527,12 +12532,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>1969</v>
       </c>
-      <c r="B24" s="30" t="s">
-        <v>196</v>
+      <c r="B24" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>149</v>
@@ -12552,7 +12557,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>1970</v>
       </c>
@@ -12576,12 +12581,12 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>1971</v>
       </c>
-      <c r="B26" s="30" t="s">
-        <v>196</v>
+      <c r="B26" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>156</v>
@@ -12598,12 +12603,12 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>1972</v>
       </c>
-      <c r="B27" s="30" t="s">
-        <v>196</v>
+      <c r="B27" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>158</v>
@@ -12620,7 +12625,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>1973</v>
       </c>
@@ -12644,7 +12649,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>1974</v>
       </c>
@@ -12668,7 +12673,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>1975</v>
       </c>
@@ -12692,7 +12697,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>1976</v>
       </c>
@@ -12716,7 +12721,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>1977</v>
       </c>
@@ -12740,12 +12745,12 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>1978</v>
       </c>
-      <c r="B33" s="30" t="s">
-        <v>196</v>
+      <c r="B33" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>159</v>
@@ -12762,12 +12767,12 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>1979</v>
       </c>
-      <c r="B34" s="30" t="s">
-        <v>196</v>
+      <c r="B34" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>156</v>
@@ -12784,12 +12789,12 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>1980</v>
       </c>
-      <c r="B35" s="30" t="s">
-        <v>196</v>
+      <c r="B35" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>156</v>
@@ -12806,12 +12811,12 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>1981</v>
       </c>
-      <c r="B36" s="30" t="s">
-        <v>196</v>
+      <c r="B36" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>158</v>
@@ -12828,12 +12833,12 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>1981</v>
       </c>
-      <c r="B37" s="30" t="s">
-        <v>196</v>
+      <c r="B37" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>156</v>
@@ -12850,12 +12855,12 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>1982</v>
       </c>
-      <c r="B38" s="30" t="s">
-        <v>196</v>
+      <c r="B38" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>162</v>
@@ -12872,12 +12877,12 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>1982</v>
       </c>
-      <c r="B39" s="30" t="s">
-        <v>196</v>
+      <c r="B39" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>163</v>
@@ -12894,12 +12899,12 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>1982</v>
       </c>
-      <c r="B40" s="30" t="s">
-        <v>196</v>
+      <c r="B40" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>156</v>
@@ -12916,12 +12921,12 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>1983</v>
       </c>
-      <c r="B41" s="30" t="s">
-        <v>196</v>
+      <c r="B41" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>158</v>
@@ -12938,12 +12943,12 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>1983</v>
       </c>
-      <c r="B42" s="30" t="s">
-        <v>196</v>
+      <c r="B42" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>163</v>
@@ -12960,12 +12965,12 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>1983</v>
       </c>
-      <c r="B43" s="30" t="s">
-        <v>196</v>
+      <c r="B43" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>164</v>
@@ -12982,12 +12987,12 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>1983</v>
       </c>
-      <c r="B44" s="30" t="s">
-        <v>196</v>
+      <c r="B44" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>165</v>
@@ -13004,12 +13009,12 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>1983</v>
       </c>
-      <c r="B45" s="30" t="s">
-        <v>196</v>
+      <c r="B45" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>156</v>
@@ -13026,12 +13031,12 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>1984</v>
       </c>
-      <c r="B46" s="30" t="s">
-        <v>196</v>
+      <c r="B46" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>166</v>
@@ -13048,12 +13053,12 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>1984</v>
       </c>
-      <c r="B47" s="30" t="s">
-        <v>196</v>
+      <c r="B47" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>167</v>
@@ -13070,12 +13075,12 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>1984</v>
       </c>
-      <c r="B48" s="30" t="s">
-        <v>196</v>
+      <c r="B48" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>156</v>
@@ -13092,12 +13097,12 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>1985</v>
       </c>
-      <c r="B49" s="30" t="s">
-        <v>196</v>
+      <c r="B49" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>168</v>
@@ -13114,12 +13119,12 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>1985</v>
       </c>
-      <c r="B50" s="30" t="s">
-        <v>196</v>
+      <c r="B50" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>169</v>
@@ -13136,12 +13141,12 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>1985</v>
       </c>
-      <c r="B51" s="30" t="s">
-        <v>196</v>
+      <c r="B51" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>156</v>
@@ -13158,12 +13163,12 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>1986</v>
       </c>
-      <c r="B52" s="30" t="s">
-        <v>196</v>
+      <c r="B52" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>170</v>
@@ -13180,12 +13185,12 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>1986</v>
       </c>
-      <c r="B53" s="30" t="s">
-        <v>196</v>
+      <c r="B53" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>171</v>
@@ -13202,12 +13207,12 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>1986</v>
       </c>
-      <c r="B54" s="30" t="s">
-        <v>196</v>
+      <c r="B54" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>156</v>
@@ -13224,12 +13229,12 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>1987</v>
       </c>
-      <c r="B55" s="30" t="s">
-        <v>196</v>
+      <c r="B55" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>173</v>
@@ -13246,12 +13251,12 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>1987</v>
       </c>
-      <c r="B56" s="30" t="s">
-        <v>196</v>
+      <c r="B56" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>174</v>
@@ -13268,12 +13273,12 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>1987</v>
       </c>
-      <c r="B57" s="30" t="s">
-        <v>196</v>
+      <c r="B57" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>175</v>
@@ -13290,12 +13295,12 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>1987</v>
       </c>
-      <c r="B58" s="30" t="s">
-        <v>196</v>
+      <c r="B58" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>156</v>
@@ -13312,12 +13317,12 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>1988</v>
       </c>
-      <c r="B59" s="30" t="s">
-        <v>196</v>
+      <c r="B59" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>176</v>
@@ -13334,12 +13339,12 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>1988</v>
       </c>
-      <c r="B60" s="30" t="s">
-        <v>196</v>
+      <c r="B60" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>177</v>
@@ -13356,12 +13361,12 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>1988</v>
       </c>
-      <c r="B61" s="30" t="s">
-        <v>196</v>
+      <c r="B61" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>156</v>
@@ -13378,12 +13383,12 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>1989</v>
       </c>
-      <c r="B62" s="30" t="s">
-        <v>196</v>
+      <c r="B62" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>178</v>
@@ -13400,12 +13405,12 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>1989</v>
       </c>
-      <c r="B63" s="30" t="s">
-        <v>196</v>
+      <c r="B63" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>179</v>
@@ -13422,12 +13427,12 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>1989</v>
       </c>
-      <c r="B64" s="30" t="s">
-        <v>196</v>
+      <c r="B64" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>156</v>
@@ -13444,12 +13449,12 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>1990</v>
       </c>
-      <c r="B65" s="30" t="s">
-        <v>196</v>
+      <c r="B65" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>180</v>
@@ -13466,12 +13471,12 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>1990</v>
       </c>
-      <c r="B66" s="30" t="s">
-        <v>196</v>
+      <c r="B66" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>181</v>
@@ -13488,12 +13493,12 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>1990</v>
       </c>
-      <c r="B67" s="30" t="s">
-        <v>196</v>
+      <c r="B67" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>156</v>
@@ -13608,7 +13613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13618,50 +13623,50 @@
       <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="C1" s="36" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>200</v>
+      <c r="C3" s="26" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>

--- a/Collections/Germany/#Germany#GDR#Regular#[1950-1990]#circulation_quality.xlsx
+++ b/Collections/Germany/#Germany#GDR#Regular#[1950-1990]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB98417C-C05B-4F70-BE32-FBB45522C426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0395BF94-E30C-4A68-9AC8-C248B28B68A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1₰" sheetId="12" r:id="rId1"/>
@@ -4011,10 +4011,10 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4663,7 +4663,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>0</v>
@@ -5519,11 +5519,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6162,7 +6162,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>0</v>
@@ -9281,7 +9281,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F13 F26:F28 F44 F34:F41">
+  <conditionalFormatting sqref="F13 F23 F26:F28 F44 F34:F41">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11947,11 +11947,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Collections/Germany/#Germany#GDR#Regular#[1950-1990]#circulation_quality.xlsx
+++ b/Collections/Germany/#Germany#GDR#Regular#[1950-1990]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0395BF94-E30C-4A68-9AC8-C248B28B68A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA4EFAF-BB20-4637-B312-52054257446D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1₰" sheetId="12" r:id="rId1"/>
@@ -20,9 +20,17 @@
     <sheet name="50₰" sheetId="18" r:id="rId5"/>
     <sheet name="1ℳ" sheetId="19" r:id="rId6"/>
     <sheet name="2ℳ" sheetId="23" r:id="rId7"/>
-    <sheet name="5ℳ" sheetId="25" r:id="rId8"/>
-    <sheet name="Links" sheetId="21" r:id="rId9"/>
+    <sheet name="Links" sheetId="21" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1₰'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'10₰'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'1ℳ'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'20₰'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2ℳ'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'5₰'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'50₰'!$B$2:$E$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -417,48 +425,8 @@
 </comments>
 </file>
 
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Пользователь Windows</author>
-  </authors>
-  <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Staatliche Münze Berlin (Berlin Mint)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Staatliche Münze Berlin (Berlin Mint)</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="167">
   <si>
     <t>-</t>
   </si>
@@ -901,111 +869,6 @@
     <t>46.000</t>
   </si>
   <si>
-    <t>5ℳ</t>
-  </si>
-  <si>
-    <t>50.222.000</t>
-  </si>
-  <si>
-    <t>20th anniversary DDR</t>
-  </si>
-  <si>
-    <t>4.000.000</t>
-  </si>
-  <si>
-    <t>32.000</t>
-  </si>
-  <si>
-    <t>28.000</t>
-  </si>
-  <si>
-    <t>3.000</t>
-  </si>
-  <si>
-    <t>220.000</t>
-  </si>
-  <si>
-    <t>50.000</t>
-  </si>
-  <si>
-    <t>Brandenburg Gate</t>
-  </si>
-  <si>
-    <t>3.500.000</t>
-  </si>
-  <si>
-    <t>City of Meissen</t>
-  </si>
-  <si>
-    <t>Anti-Apartheid Year</t>
-  </si>
-  <si>
-    <t>196.000</t>
-  </si>
-  <si>
-    <t>245.000</t>
-  </si>
-  <si>
-    <t>Goethe's Weimat Cottage</t>
-  </si>
-  <si>
-    <t>Wartburg Castle</t>
-  </si>
-  <si>
-    <t>Wittenberg Church</t>
-  </si>
-  <si>
-    <t>Martin Luther's birthlace</t>
-  </si>
-  <si>
-    <t>Leipzig Old City Hall</t>
-  </si>
-  <si>
-    <t>Thomas Chruch of Leipzig</t>
-  </si>
-  <si>
-    <t>Restoration of Dresden Women's Chruch</t>
-  </si>
-  <si>
-    <t>Restoration of Dresden Zwinger</t>
-  </si>
-  <si>
-    <t>Postdam - Sanssouci Palace</t>
-  </si>
-  <si>
-    <t>Postdam - New palace</t>
-  </si>
-  <si>
-    <t>496.000</t>
-  </si>
-  <si>
-    <t>Berlin - Nikolai Quarter</t>
-  </si>
-  <si>
-    <t>Berlin - Red City Hall</t>
-  </si>
-  <si>
-    <t>Berlin - Universal Time Clock</t>
-  </si>
-  <si>
-    <t>Germany's First Railroad</t>
-  </si>
-  <si>
-    <t>Port City of Rostock</t>
-  </si>
-  <si>
-    <t>Katharinen Kirche in Zwickau</t>
-  </si>
-  <si>
-    <t>Marien Kirche in Muhlhausen</t>
-  </si>
-  <si>
-    <t>Zeughaus Museum</t>
-  </si>
-  <si>
-    <t>500th anniversary of Postal Services</t>
-  </si>
-  <si>
     <t>10₰</t>
   </si>
   <si>
@@ -1015,12 +878,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -1045,9 +902,6 @@
     <t xml:space="preserve"> Large 2</t>
   </si>
   <si>
-    <t>Commemorative coins</t>
-  </si>
-  <si>
     <t>Link</t>
   </si>
   <si>
@@ -1061,6 +915,18 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>Subtype_1#Special_distinctions_1</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_distinctions_2</t>
+  </si>
+  <si>
+    <t>Subtype_1#Special_distinctions_2</t>
+  </si>
+  <si>
+    <t>smaller design features</t>
   </si>
 </sst>
 </file>
@@ -1354,9 +1220,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1366,6 +1229,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1386,24 +1255,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="92">
+  <dxfs count="87">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1412,46 +1276,6 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2464,47 +2288,47 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="20" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="20" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="31" t="s">
+      <c r="A1" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="36"/>
+      <c r="E1" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" s="29"/>
+      <c r="G1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="32"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="35"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="27" t="s">
+        <v>162</v>
+      </c>
       <c r="C2" s="18" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>1</v>
@@ -2528,7 +2352,7 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="28" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="14" t="s">
@@ -2554,7 +2378,7 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="28"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="7" t="s">
         <v>13</v>
       </c>
@@ -3335,7 +3159,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="8" t="s">
@@ -3363,7 +3187,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="8" t="s">
@@ -3391,7 +3215,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="8" t="s">
@@ -3419,7 +3243,7 @@
         <v>31</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="7" t="s">
@@ -3447,7 +3271,7 @@
         <v>31</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="8" t="s">
@@ -3475,7 +3299,7 @@
         <v>31</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="8" t="s">
@@ -3503,7 +3327,7 @@
         <v>31</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="8" t="s">
@@ -3531,7 +3355,7 @@
         <v>31</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="8" t="s">
@@ -3559,7 +3383,7 @@
         <v>31</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="8" t="s">
@@ -3587,7 +3411,7 @@
         <v>31</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="8" t="s">
@@ -3615,7 +3439,7 @@
         <v>31</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="8" t="s">
@@ -3643,7 +3467,7 @@
         <v>31</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="8" t="s">
@@ -3671,7 +3495,7 @@
         <v>31</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="8" t="s">
@@ -3699,7 +3523,7 @@
         <v>31</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="8" t="s">
@@ -3720,12 +3544,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="5">
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3">
@@ -3813,37 +3637,37 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="91" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="86" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="90" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="85" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="89" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="84" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="88" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="containsText" dxfId="87" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="86" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3 G6:H6 G15:H22 H9:H14 G24:H26 H23 G29:H29 H27:H28 G31:H31 H30 H32:H45">
-    <cfRule type="containsText" dxfId="85" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3860,7 +3684,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="84" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3877,7 +3701,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G14">
-    <cfRule type="containsText" dxfId="83" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3894,7 +3718,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="82" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3911,7 +3735,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="81" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3928,7 +3752,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45">
-    <cfRule type="containsText" dxfId="80" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3945,7 +3769,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="79" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3962,7 +3786,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="78" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3979,7 +3803,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="containsText" dxfId="77" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3996,7 +3820,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:G44">
-    <cfRule type="containsText" dxfId="76" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4014,47 +3838,47 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K25" sqref="K25"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="20" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="20" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="H1" s="32"/>
+      <c r="A1" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="36"/>
+      <c r="E1" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" s="29"/>
+      <c r="G1" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="35"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="27" t="s">
+        <v>162</v>
+      </c>
       <c r="C2" s="18" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>1</v>
@@ -4078,9 +3902,7 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="21" t="s">
-        <v>0</v>
-      </c>
+      <c r="E3" s="21"/>
       <c r="F3" s="14" t="s">
         <v>0</v>
       </c>
@@ -4104,7 +3926,7 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="22"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="14" t="s">
         <v>0</v>
       </c>
@@ -4943,7 +4765,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="8" t="s">
@@ -4971,7 +4793,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="8" t="s">
@@ -4999,7 +4821,7 @@
         <v>31</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="7" t="s">
@@ -5027,7 +4849,7 @@
         <v>31</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="8" t="s">
@@ -5055,7 +4877,7 @@
         <v>31</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="8" t="s">
@@ -5083,7 +4905,7 @@
         <v>31</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="8" t="s">
@@ -5111,7 +4933,7 @@
         <v>31</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="8" t="s">
@@ -5139,7 +4961,7 @@
         <v>31</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="8" t="s">
@@ -5167,7 +4989,7 @@
         <v>31</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="8" t="s">
@@ -5195,7 +5017,7 @@
         <v>31</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="8" t="s">
@@ -5223,7 +5045,7 @@
         <v>31</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="8" t="s">
@@ -5251,7 +5073,7 @@
         <v>31</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="8" t="s">
@@ -5279,7 +5101,7 @@
         <v>31</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="8" t="s">
@@ -5300,15 +5122,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G7:H8 G3:G5 G23 G30 G33:G45 G27">
-    <cfRule type="containsText" dxfId="75" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -5323,7 +5145,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H6">
-    <cfRule type="containsText" dxfId="74" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5340,7 +5162,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="73" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5357,7 +5179,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G22">
-    <cfRule type="containsText" dxfId="72" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5374,7 +5196,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H45">
-    <cfRule type="containsText" dxfId="71" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5391,7 +5213,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="70" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5408,7 +5230,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="69" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5425,7 +5247,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="containsText" dxfId="68" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5442,7 +5264,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="containsText" dxfId="67" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5459,7 +5281,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="containsText" dxfId="66" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5476,7 +5298,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="containsText" dxfId="65" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5493,7 +5315,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="containsText" dxfId="64" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5519,51 +5341,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="20" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="20" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="H1" s="32"/>
+      <c r="A1" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="36"/>
+      <c r="E1" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" s="29"/>
+      <c r="G1" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="35"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="27" t="s">
+        <v>162</v>
+      </c>
       <c r="C2" s="18" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>1</v>
@@ -5587,7 +5409,7 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="28" t="s">
         <v>65</v>
       </c>
       <c r="F3" s="14" t="s">
@@ -5613,7 +5435,7 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="28"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="14" t="s">
         <v>0</v>
       </c>
@@ -5637,7 +5459,7 @@
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="28"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="7" t="s">
         <v>66</v>
       </c>
@@ -6765,16 +6587,16 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <mergeCells count="5">
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E3:E5"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:H6 H3:H4 G9:H17 G19:H19 H18 G21:H21 H20 G24:H24 H22:H23 G29:H32 H25:H28 H33:H45">
-    <cfRule type="containsText" dxfId="63" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6803,7 +6625,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="62" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6820,7 +6642,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="61" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6837,7 +6659,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="60" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6854,7 +6676,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="59" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6871,7 +6693,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G8">
-    <cfRule type="containsText" dxfId="58" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6888,7 +6710,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H8">
-    <cfRule type="containsText" dxfId="57" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6905,7 +6727,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="containsText" dxfId="56" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6922,7 +6744,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsText" dxfId="55" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6939,7 +6761,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="54" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6956,7 +6778,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="53" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6973,7 +6795,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:G28">
-    <cfRule type="containsText" dxfId="52" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6990,12 +6812,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33:G38 G43:G44 G40:G41">
-    <cfRule type="containsText" dxfId="51" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45">
-    <cfRule type="containsText" dxfId="50" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G45))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7012,7 +6834,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42">
-    <cfRule type="containsText" dxfId="49" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G42))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7029,7 +6851,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39">
-    <cfRule type="containsText" dxfId="48" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G39))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7056,48 +6878,50 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="20" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="20" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="3.6328125" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="D1" s="37"/>
+      <c r="A1" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="36"/>
       <c r="E1" s="16" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="35"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="27" t="s">
+        <v>162</v>
+      </c>
       <c r="C2" s="18" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>1</v>
@@ -8071,9 +7895,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F23">
@@ -8137,27 +7961,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24 F26:F29">
-    <cfRule type="containsText" dxfId="47" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:F41 F44">
-    <cfRule type="containsText" dxfId="46" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F23">
-    <cfRule type="containsText" dxfId="45" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="44" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30:F33">
-    <cfRule type="containsText" dxfId="43" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8174,7 +7998,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="containsText" dxfId="42" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F43))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8191,12 +8015,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="containsText" dxfId="41" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F42))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="containsText" dxfId="40" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F45))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8226,45 +8050,47 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="20" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="20" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="3.6328125" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="D1" s="37"/>
+      <c r="A1" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="36"/>
       <c r="E1" s="16" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="35"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="27" t="s">
+        <v>162</v>
+      </c>
       <c r="C2" s="18" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>1</v>
@@ -8513,7 +8339,7 @@
         <v>31</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="7" t="s">
@@ -8751,7 +8577,7 @@
         <v>31</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="8" t="s">
@@ -8821,7 +8647,7 @@
         <v>31</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="7" t="s">
@@ -8843,7 +8669,7 @@
         <v>31</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="7" t="s">
@@ -8865,7 +8691,7 @@
         <v>31</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="7" t="s">
@@ -9007,7 +8833,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="8" t="s">
@@ -9029,7 +8855,7 @@
         <v>31</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="7" t="s">
@@ -9051,7 +8877,7 @@
         <v>31</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="8" t="s">
@@ -9073,7 +8899,7 @@
         <v>31</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="8" t="s">
@@ -9095,7 +8921,7 @@
         <v>31</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="8" t="s">
@@ -9117,7 +8943,7 @@
         <v>31</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="8" t="s">
@@ -9139,7 +8965,7 @@
         <v>31</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="8" t="s">
@@ -9161,7 +8987,7 @@
         <v>31</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="8" t="s">
@@ -9183,7 +9009,7 @@
         <v>31</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="14" t="s">
@@ -9205,7 +9031,7 @@
         <v>31</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="14" t="s">
@@ -9227,7 +9053,7 @@
         <v>31</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="8" t="s">
@@ -9249,7 +9075,7 @@
         <v>31</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="14" t="s">
@@ -9264,9 +9090,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F6:F12">
@@ -9342,32 +9168,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F12">
-    <cfRule type="containsText" dxfId="39" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="38" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="37" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F22">
-    <cfRule type="containsText" dxfId="36" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23 F13 F26:F28 F44 F34:F41">
-    <cfRule type="containsText" dxfId="35" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="34" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9384,7 +9210,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="containsText" dxfId="33" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9401,7 +9227,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="32" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9418,7 +9244,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="containsText" dxfId="31" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F42))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9435,7 +9261,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="containsText" dxfId="30" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F43))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9452,7 +9278,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F45))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9469,7 +9295,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29:F33">
-    <cfRule type="containsText" dxfId="28" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9487,45 +9313,47 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="20" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="20" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="3.6328125" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="D1" s="37"/>
+      <c r="A1" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="36"/>
       <c r="E1" s="16" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="35"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="27" t="s">
+        <v>162</v>
+      </c>
       <c r="C2" s="18" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>1</v>
@@ -9734,7 +9562,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="7" t="s">
@@ -9876,7 +9704,7 @@
         <v>31</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="7" t="s">
@@ -9898,7 +9726,7 @@
         <v>31</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="7" t="s">
@@ -10112,7 +9940,7 @@
         <v>31</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="7" t="s">
@@ -10134,7 +9962,7 @@
         <v>31</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="7" t="s">
@@ -10180,7 +10008,7 @@
         <v>31</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="7" t="s">
@@ -10226,7 +10054,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="8" t="s">
@@ -10248,7 +10076,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="8" t="s">
@@ -10270,7 +10098,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="8" t="s">
@@ -10292,7 +10120,7 @@
         <v>31</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="7" t="s">
@@ -10314,7 +10142,7 @@
         <v>31</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="8" t="s">
@@ -10336,7 +10164,7 @@
         <v>31</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="8" t="s">
@@ -10358,7 +10186,7 @@
         <v>31</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="8" t="s">
@@ -10380,7 +10208,7 @@
         <v>31</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="8" t="s">
@@ -10402,7 +10230,7 @@
         <v>31</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="8" t="s">
@@ -10424,7 +10252,7 @@
         <v>31</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="8" t="s">
@@ -10446,7 +10274,7 @@
         <v>31</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="14" t="s">
@@ -10468,7 +10296,7 @@
         <v>31</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="14" t="s">
@@ -10490,7 +10318,7 @@
         <v>31</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="14" t="s">
@@ -10512,7 +10340,7 @@
         <v>31</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="14" t="s">
@@ -10527,9 +10355,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F27:F28 F30 F32:F41">
@@ -10593,27 +10421,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F10">
-    <cfRule type="containsText" dxfId="27" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19:F26">
-    <cfRule type="containsText" dxfId="26" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="25" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F28 F30 F32:F41">
-    <cfRule type="containsText" dxfId="24" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11 F17:F18">
-    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10630,7 +10458,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F16">
-    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10647,7 +10475,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10664,7 +10492,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10681,7 +10509,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42:F45">
-    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F42))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10695,49 +10523,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="20" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="20" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="3.6328125" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="D1" s="37"/>
+      <c r="A1" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="36"/>
       <c r="E1" s="16" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="35"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="27" t="s">
+        <v>162</v>
+      </c>
       <c r="C2" s="18" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>1</v>
@@ -10970,7 +10800,7 @@
         <v>31</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="7" t="s">
@@ -11376,7 +11206,7 @@
         <v>31</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="7" t="s">
@@ -11398,7 +11228,7 @@
         <v>31</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="7" t="s">
@@ -11444,7 +11274,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="8" t="s">
@@ -11466,7 +11296,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="8" t="s">
@@ -11488,7 +11318,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="8" t="s">
@@ -11510,7 +11340,7 @@
         <v>31</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="7" t="s">
@@ -11532,7 +11362,7 @@
         <v>31</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="8" t="s">
@@ -11554,7 +11384,7 @@
         <v>31</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="8" t="s">
@@ -11576,7 +11406,7 @@
         <v>31</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="8" t="s">
@@ -11598,7 +11428,7 @@
         <v>31</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="8" t="s">
@@ -11620,7 +11450,7 @@
         <v>31</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="8" t="s">
@@ -11642,7 +11472,7 @@
         <v>31</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="8" t="s">
@@ -11664,7 +11494,7 @@
         <v>31</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="8" t="s">
@@ -11686,7 +11516,7 @@
         <v>31</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="8" t="s">
@@ -11708,7 +11538,7 @@
         <v>31</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="8" t="s">
@@ -11730,7 +11560,7 @@
         <v>31</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="14" t="s">
@@ -11745,9 +11575,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F4:F10">
@@ -11763,7 +11593,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F26">
-    <cfRule type="containsText" dxfId="18" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11792,7 +11622,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11821,7 +11651,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:F23">
-    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11838,7 +11668,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="15" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11855,22 +11685,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F10">
-    <cfRule type="containsText" dxfId="14" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29:F30 F32:F44">
-    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11887,7 +11717,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11904,7 +11734,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11921,7 +11751,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F45))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11944,1675 +11774,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:Q67"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H15" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="20" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="17">
-        <v>1948</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4" t="str">
-        <f t="shared" ref="G3:G66" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="17">
-        <v>1949</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="17">
-        <v>1950</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>1951</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>1952</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>1953</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>1954</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>1955</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>1956</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>1957</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>1958</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>1959</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>1960</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>1961</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>1962</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>1963</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>1964</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>1965</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>1966</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>1967</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>1968</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G23" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>1969</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F24" s="10">
-        <v>0</v>
-      </c>
-      <c r="G24" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>1970</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>1971</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F26" s="10">
-        <v>0</v>
-      </c>
-      <c r="G26" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>1972</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F27" s="10">
-        <v>0</v>
-      </c>
-      <c r="G27" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>1973</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G28" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>1974</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G29" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
-        <v>1975</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G30" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
-        <v>1976</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G31" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
-        <v>1977</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G32" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
-        <v>1978</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F33" s="10">
-        <v>0</v>
-      </c>
-      <c r="G33" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
-        <v>1979</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="F34" s="10">
-        <v>0</v>
-      </c>
-      <c r="G34" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
-        <v>1980</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F35" s="10">
-        <v>0</v>
-      </c>
-      <c r="G35" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
-        <v>1981</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G36" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
-        <v>1981</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F37" s="10">
-        <v>0</v>
-      </c>
-      <c r="G37" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
-        <v>1982</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F38" s="10">
-        <v>0</v>
-      </c>
-      <c r="G38" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
-        <v>1982</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F39" s="10">
-        <v>0</v>
-      </c>
-      <c r="G39" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
-        <v>1982</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F40" s="10">
-        <v>0</v>
-      </c>
-      <c r="G40" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
-        <v>1983</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F41" s="10">
-        <v>0</v>
-      </c>
-      <c r="G41" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
-        <v>1983</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F42" s="10">
-        <v>0</v>
-      </c>
-      <c r="G42" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
-        <v>1983</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F43" s="10">
-        <v>0</v>
-      </c>
-      <c r="G43" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
-        <v>1983</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F44" s="10">
-        <v>0</v>
-      </c>
-      <c r="G44" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
-        <v>1983</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="F45" s="10">
-        <v>0</v>
-      </c>
-      <c r="G45" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
-        <v>1984</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F46" s="10">
-        <v>0</v>
-      </c>
-      <c r="G46" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
-        <v>1984</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F47" s="10">
-        <v>0</v>
-      </c>
-      <c r="G47" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
-        <v>1984</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F48" s="10">
-        <v>0</v>
-      </c>
-      <c r="G48" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
-        <v>1985</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F49" s="10">
-        <v>0</v>
-      </c>
-      <c r="G49" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
-        <v>1985</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F50" s="10">
-        <v>0</v>
-      </c>
-      <c r="G50" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
-        <v>1985</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="F51" s="10">
-        <v>0</v>
-      </c>
-      <c r="G51" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
-        <v>1986</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F52" s="10">
-        <v>0</v>
-      </c>
-      <c r="G52" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
-        <v>1986</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F53" s="10">
-        <v>0</v>
-      </c>
-      <c r="G53" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
-        <v>1986</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F54" s="10">
-        <v>0</v>
-      </c>
-      <c r="G54" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
-        <v>1987</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F55" s="10">
-        <v>0</v>
-      </c>
-      <c r="G55" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
-        <v>1987</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F56" s="10">
-        <v>0</v>
-      </c>
-      <c r="G56" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
-        <v>1987</v>
-      </c>
-      <c r="B57" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D57" s="6"/>
-      <c r="E57" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F57" s="10">
-        <v>0</v>
-      </c>
-      <c r="G57" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
-        <v>1987</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="F58" s="10">
-        <v>0</v>
-      </c>
-      <c r="G58" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
-        <v>1988</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D59" s="6"/>
-      <c r="E59" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F59" s="10">
-        <v>0</v>
-      </c>
-      <c r="G59" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
-        <v>1988</v>
-      </c>
-      <c r="B60" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F60" s="10">
-        <v>0</v>
-      </c>
-      <c r="G60" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
-        <v>1988</v>
-      </c>
-      <c r="B61" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D61" s="6"/>
-      <c r="E61" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F61" s="10">
-        <v>0</v>
-      </c>
-      <c r="G61" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
-        <v>1989</v>
-      </c>
-      <c r="B62" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F62" s="10">
-        <v>0</v>
-      </c>
-      <c r="G62" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
-        <v>1989</v>
-      </c>
-      <c r="B63" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D63" s="6"/>
-      <c r="E63" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F63" s="10">
-        <v>0</v>
-      </c>
-      <c r="G63" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
-        <v>1989</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D64" s="6"/>
-      <c r="E64" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F64" s="10">
-        <v>0</v>
-      </c>
-      <c r="G64" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="1">
-        <v>1990</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D65" s="6"/>
-      <c r="E65" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F65" s="10">
-        <v>0</v>
-      </c>
-      <c r="G65" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="1">
-        <v>1990</v>
-      </c>
-      <c r="B66" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D66" s="6"/>
-      <c r="E66" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F66" s="10">
-        <v>0</v>
-      </c>
-      <c r="G66" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="1">
-        <v>1990</v>
-      </c>
-      <c r="B67" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D67" s="6"/>
-      <c r="E67" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="F67" s="10">
-        <v>0</v>
-      </c>
-      <c r="G67" s="4" t="str">
-        <f t="shared" ref="G67" si="1">IF(OR(AND(F67&gt;1,F67&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="F3:F35 F37 F40 F45:F67">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F35 F37 F40 F45:F67">
-    <cfRule type="containsText" dxfId="7" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F36))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F41))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38:F39">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38:F39">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F38))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42:F44">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42:F44">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F42))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -13620,7 +11781,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13631,14 +11792,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>197</v>
+      <c r="B1" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -13648,8 +11809,8 @@
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>198</v>
+      <c r="C2" s="25" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -13659,8 +11820,8 @@
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>199</v>
+      <c r="C3" s="25" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
